--- a/results/LGBMClassifier_tpesearch-estimator_df.xlsx
+++ b/results/LGBMClassifier_tpesearch-estimator_df.xlsx
@@ -506,12 +506,12 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9d6bb74a30&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e34e6c10&gt;),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.371256644651064, max_depth=3,
-                                min_child_samples=6, min_data_in_leaf=32,
-                                num_leaves=5, random_state=42))])</t>
+                                learning_rate=0.42100163283803904, max_depth=5,
+                                min_child_samples=16, min_data_in_leaf=32,
+                                num_leaves=3, random_state=42))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,11 +526,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9e240dea00&gt;, 'model__boosting_type': 'dart', 'model__num_leaves': 5, 'model__learning_rate': 0.371256644651064, 'model__max_depth': 3, 'model__min_data_in_leaf': 32, 'model__min_child_samples': 6, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e14c8280&gt;, 'model__boosting_type': 'dart', 'model__num_leaves': 3, 'model__learning_rate': 0.42100163283803904, 'model__max_depth': 5, 'model__min_data_in_leaf': 32, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5867333761047585</v>
+        <v>0.5939363688912753</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,10 +541,10 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7652716415501625</v>
+        <v>0.722779434354387</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5234029095509171</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 1]</t>
+          <t>[0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1]</t>
         </is>
       </c>
     </row>
@@ -586,9 +586,9 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.02868454402444335, max_depth=4,
-                                min_child_samples=11, min_data_in_leaf=35,
-                                num_leaves=4, random_state=42))])</t>
+                                learning_rate=0.06104218362693631, max_depth=4,
+                                min_child_samples=16, min_data_in_leaf=34,
+                                num_leaves=9, random_state=42))])</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,11 +603,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 4, 'model__learning_rate': 0.02868454402444335, 'model__max_depth': 4, 'model__min_data_in_leaf': 35, 'model__min_child_samples': 11, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 9, 'model__learning_rate': 0.06104218362693631, 'model__max_depth': 4, 'model__min_data_in_leaf': 34, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5792529324820347</v>
+        <v>0.5741796033792266</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6793974437005478</v>
+        <v>0.690725319065174</v>
       </c>
       <c r="H3" t="n">
         <v>0.4895104895104894</v>
@@ -663,9 +663,9 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.04414583361009596, max_depth=5,
-                                min_child_samples=16, min_data_in_leaf=33,
-                                num_leaves=9, random_state=42))])</t>
+                                learning_rate=0.0308556921778994, max_depth=9,
+                                min_child_samples=1, min_data_in_leaf=33,
+                                num_leaves=7, random_state=42))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -680,11 +680,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 9, 'model__learning_rate': 0.04414583361009596, 'model__max_depth': 5, 'model__min_data_in_leaf': 33, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 7, 'model__learning_rate': 0.0308556921778994, 'model__max_depth': 9, 'model__min_data_in_leaf': 33, 'model__min_child_samples': 1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5784486299360441</v>
+        <v>0.5772968588771523</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -740,9 +740,9 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.045243111365827704, max_depth=4,
-                                min_child_samples=6, min_data_in_leaf=32,
-                                num_leaves=2, random_state=42))])</t>
+                                learning_rate=0.01581161161334612, max_depth=9,
+                                min_child_samples=11, min_data_in_leaf=26,
+                                num_leaves=5, random_state=42))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -757,11 +757,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 2, 'model__learning_rate': 0.045243111365827704, 'model__max_depth': 4, 'model__min_data_in_leaf': 32, 'model__min_child_samples': 6, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 5, 'model__learning_rate': 0.01581161161334612, 'model__max_depth': 9, 'model__min_data_in_leaf': 26, 'model__min_child_samples': 11, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5812835104352133</v>
+        <v>0.5916047234499248</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -772,10 +772,10 @@
         <v>99</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7223751670756279</v>
+        <v>0.8055642047577533</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4611594202898551</v>
+        <v>0.3693284936479129</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0]</t>
+          <t>[0 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0]</t>
         </is>
       </c>
     </row>
@@ -817,9 +817,9 @@
                 ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.11036576932947523, max_depth=7,
+                                learning_rate=0.01055024145978617, max_depth=5,
                                 min_child_samples=16, min_data_in_leaf=30,
-                                num_leaves=6, random_state=42))])</t>
+                                num_leaves=10, random_state=42))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -834,11 +834,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 6, 'model__learning_rate': 0.11036576932947523, 'model__max_depth': 7, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 10, 'model__learning_rate': 0.01055024145978617, 'model__max_depth': 5, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5939106504539268</v>
+        <v>0.6113863312171295</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8079495249046783</v>
+        <v>0.6800450112528132</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5034965034965034</v>
+        <v>0.5440917107583775</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 0 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1]</t>
         </is>
       </c>
     </row>

--- a/results/LGBMClassifier_tpesearch-estimator_df.xlsx
+++ b/results/LGBMClassifier_tpesearch-estimator_df.xlsx
@@ -501,17 +501,18 @@
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
                                                    'Delta_OnAxis', 'D...
+                                                   'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e34e6c10&gt;),
+                ('selector', 'passthrough'),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.42100163283803904, max_depth=5,
-                                min_child_samples=16, min_data_in_leaf=32,
-                                num_leaves=3, random_state=42))])</t>
+                                learning_rate=0.08362420395484067, max_bin=22,
+                                max_depth=3, min_child_samples=16,
+                                min_data_in_leaf=22, num_leaves=10,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,11 +527,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e14c8280&gt;, 'model__boosting_type': 'dart', 'model__num_leaves': 3, 'model__learning_rate': 0.42100163283803904, 'model__max_depth': 5, 'model__min_data_in_leaf': 32, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__boosting_type': 'dart', 'model__max_bin': 22, 'model__num_leaves': 10, 'model__learning_rate': 0.08362420395484067, 'model__max_depth': 3, 'model__min_data_in_leaf': 22, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5939363688912753</v>
+        <v>0.6178675297870344</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,19 +542,19 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.722779434354387</v>
+        <v>0.8920213246588958</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -577,18 +578,19 @@
                                                    'Corrective_V', 'Delta_AE',
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_OnAxis', 'D...',
                                                    'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector', 'passthrough'),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.06104218362693631, max_depth=4,
-                                min_child_samples=16, min_data_in_leaf=34,
-                                num_leaves=9, random_state=42))])</t>
+                                learning_rate=0.05784389350400665, max_bin=42,
+                                max_depth=4, min_child_samples=6,
+                                min_data_in_leaf=35, num_leaves=5,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,11 +605,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 9, 'model__learning_rate': 0.06104218362693631, 'model__max_depth': 4, 'model__min_data_in_leaf': 34, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__boosting_type': 'dart', 'model__max_bin': 42, 'model__num_leaves': 5, 'model__learning_rate': 0.05784389350400665, 'model__max_depth': 4, 'model__min_data_in_leaf': 35, 'model__min_child_samples': 6, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5741796033792266</v>
+        <v>0.603634266340889</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -618,19 +620,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.690725319065174</v>
+        <v>0.7420548476619618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4895104895104894</v>
+        <v>0.542463768115942</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0]</t>
+          <t>[0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -654,18 +656,19 @@
                                                    'Corrective_V', 'Delta_AE',
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_OnAxis', 'D...,
                                                    'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector', 'passthrough'),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.0308556921778994, max_depth=9,
-                                min_child_samples=1, min_data_in_leaf=33,
-                                num_leaves=7, random_state=42))])</t>
+                                learning_rate=0.21911377955371011, max_bin=12,
+                                max_depth=5, min_child_samples=11,
+                                min_data_in_leaf=25, num_leaves=6,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -680,11 +683,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 7, 'model__learning_rate': 0.0308556921778994, 'model__max_depth': 9, 'model__min_data_in_leaf': 33, 'model__min_child_samples': 1, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__boosting_type': 'dart', 'model__max_bin': 12, 'model__num_leaves': 6, 'model__learning_rate': 0.21911377955371011, 'model__max_depth': 5, 'model__min_data_in_leaf': 25, 'model__min_child_samples': 11, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5772968588771523</v>
+        <v>0.672122954444936</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -695,19 +698,19 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6903718875045041</v>
+        <v>0.8925477897252091</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6689976689976692</v>
+        <v>0.4555072463768116</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0]</t>
+          <t>[0 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -731,18 +734,19 @@
                                                    'Corrective_V', 'Delta_AE',
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_OnAxis', 'D...,
                                                    'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector', 'passthrough'),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.01581161161334612, max_depth=9,
-                                min_child_samples=11, min_data_in_leaf=26,
-                                num_leaves=5, random_state=42))])</t>
+                                learning_rate=0.02351732589932983, max_bin=22,
+                                max_depth=2, min_child_samples=6,
+                                min_data_in_leaf=22, num_leaves=10,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -757,11 +761,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 5, 'model__learning_rate': 0.01581161161334612, 'model__max_depth': 9, 'model__min_data_in_leaf': 26, 'model__min_child_samples': 11, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__boosting_type': 'dart', 'model__max_bin': 22, 'model__num_leaves': 10, 'model__learning_rate': 0.02351732589932983, 'model__max_depth': 2, 'model__min_data_in_leaf': 22, 'model__min_child_samples': 6, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5916047234499248</v>
+        <v>0.5983189431378959</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -772,19 +776,19 @@
         <v>99</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8055642047577533</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3693284936479129</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+          <t>[0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0]</t>
+          <t>[1 0 1 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 0 0 1 0 0]</t>
         </is>
       </c>
     </row>
@@ -808,18 +812,19 @@
                                                    'Corrective_V', 'Delta_AE',
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_OnAxis', 'D...',
                                                    'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector', 'passthrough'),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                learning_rate=0.01055024145978617, max_depth=5,
-                                min_child_samples=16, min_data_in_leaf=30,
-                                num_leaves=10, random_state=42))])</t>
+                                learning_rate=0.48834529362316026, max_bin=32,
+                                max_depth=6, min_child_samples=6,
+                                min_data_in_leaf=22, num_leaves=2,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -834,11 +839,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': None, 'model__boosting_type': 'dart', 'model__num_leaves': 10, 'model__learning_rate': 0.01055024145978617, 'model__max_depth': 5, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 16, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__boosting_type': 'dart', 'model__max_bin': 32, 'model__num_leaves': 2, 'model__learning_rate': 0.48834529362316026, 'model__max_depth': 6, 'model__min_data_in_leaf': 22, 'model__min_child_samples': 6, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6113863312171295</v>
+        <v>0.6063996443872606</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -849,19 +854,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6800450112528132</v>
+        <v>0.9569192298074519</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5440917107583775</v>
+        <v>0.3760869565217391</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1]</t>
         </is>
       </c>
     </row>
